--- a/Personal/xiemin/周计划 2018.03.05-2018.03.11.xlsx
+++ b/Personal/xiemin/周计划 2018.03.05-2018.03.11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>计划内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扇贝打开+科目1理论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18:00-19:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +252,131 @@
   </si>
   <si>
     <t>22:00-00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:10-11:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30-17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经解决链接问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21：50-10:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合录制DLL，并优化视频相关流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪女朋友看《前任3》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-3-9
+星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语单词100+科目1理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语单词50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:20-9:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉P2020 BSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉后形成报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:45-11:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究CVI的播放器功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目1理论题100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:10-12:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:10-16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《ARM体系架构》3.2.4-3.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:15-17:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux驱动架构学习：I2C（结合韦东山视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:20-10:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:17-10:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:50-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究IMX6Q的启动/烧写(uboot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究uboot架构，启动流程以及IC设计流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放器功能好实现，但实际不是需要创建播放器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +467,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +545,17 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -506,7 +646,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -514,8 +654,11 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,12 +679,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,9 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -591,15 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,65 +748,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="14" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -980,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1002,10 +1120,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1032,10 +1150,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="4">
         <v>1</v>
       </c>
@@ -1048,17 +1166,17 @@
       <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="45">
         <v>0.3</v>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
@@ -1068,16 +1186,16 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36">
+      <c r="A4" s="43"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1086,16 +1204,16 @@
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="42"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36">
+      <c r="A5" s="43"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1104,68 +1222,68 @@
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="42"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36">
+      <c r="A6" s="43"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="42"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="37">
+      <c r="A7" s="43"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="31">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="37">
+      <c r="A8" s="43"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="31">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="43"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
@@ -1173,12 +1291,14 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="40" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1187,57 +1307,63 @@
       <c r="F10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="45">
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="57"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="57"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1247,293 +1373,408 @@
       <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="57"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="12"/>
+      <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="45">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="45"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="40" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="45"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="45"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="10">
+        <v>5</v>
+      </c>
       <c r="D20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="45"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="12"/>
+      <c r="G20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="10">
+        <v>6</v>
+      </c>
       <c r="D21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="45"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="10">
+        <v>7</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="45"/>
+      <c r="G22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="10">
+        <v>8</v>
+      </c>
       <c r="D23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="45"/>
-    </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="18"/>
-      <c r="G25" s="18"/>
+    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="11"/>
+      <c r="A26" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="I26" s="50">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="11"/>
+      <c r="G27" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="I29" s="51"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="10">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="52"/>
+      <c r="G30" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="51"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="10">
+        <v>6</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="52"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="10">
+        <v>7</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="10">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="31"/>
+      <c r="G33" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="52"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="53"/>
+      <c r="H34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1543,10 +1784,10 @@
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="J2:J8"/>
-    <mergeCell ref="I16:I23"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="I29:I35"/>
+    <mergeCell ref="A26:A33"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="I16:I24"/>
+    <mergeCell ref="I26:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
